--- a/Clean Data Project 3/Excel /Confirmed cases by demographics/Confirm cases dem by race/Dem by race 2021.xlsx
+++ b/Clean Data Project 3/Excel /Confirmed cases by demographics/Confirm cases dem by race/Dem by race 2021.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/plampinstein/utsa/homework/project 3/Clean Data Project 3/Excel /Dem by race/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/plampinstein/utsa/homework/project 3/Data-Analysis---Project-3/Clean Data Project 3/Excel /Confirmed cases by demographics/Confirm cases dem by race/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{607AA4D6-9D6A-E34E-B314-B3E6754E08F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C69098-FADF-C94B-BFD3-A702060A664E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2280" yWindow="2740" windowWidth="26440" windowHeight="15200" xr2:uid="{58F39236-F53E-9F4B-83F4-DE3564687278}"/>
   </bookViews>
@@ -36,52 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
-  <si>
-    <t>January2021</t>
-  </si>
-  <si>
-    <t>February2021</t>
-  </si>
-  <si>
-    <t>March2021</t>
-  </si>
-  <si>
-    <t>April2021</t>
-  </si>
-  <si>
-    <t>May2021</t>
-  </si>
-  <si>
-    <t>June2021</t>
-  </si>
-  <si>
-    <t>July2021</t>
-  </si>
-  <si>
-    <t>August2021</t>
-  </si>
-  <si>
-    <t>September2021</t>
-  </si>
-  <si>
-    <t>October2021</t>
-  </si>
-  <si>
-    <t>November2021</t>
-  </si>
-  <si>
-    <t>December2021</t>
-  </si>
-  <si>
-    <t>Unknown Date 2021</t>
-  </si>
-  <si>
-    <t>Total 2021</t>
-  </si>
-  <si>
-    <t>Month Year</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Asian</t>
   </si>
@@ -101,7 +56,43 @@
     <t>Unknown</t>
   </si>
   <si>
-    <t>Total</t>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>January 2021</t>
+  </si>
+  <si>
+    <t>February 2021</t>
+  </si>
+  <si>
+    <t>March 2021</t>
+  </si>
+  <si>
+    <t>April 2021</t>
+  </si>
+  <si>
+    <t>May 2021</t>
+  </si>
+  <si>
+    <t>June 2021</t>
+  </si>
+  <si>
+    <t>July 2021</t>
+  </si>
+  <si>
+    <t>August 2021</t>
+  </si>
+  <si>
+    <t>September 2021</t>
+  </si>
+  <si>
+    <t>October 2021</t>
+  </si>
+  <si>
+    <t>November 2021</t>
+  </si>
+  <si>
+    <t>December 2021</t>
   </si>
 </sst>
 </file>
@@ -117,7 +108,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -133,27 +123,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -162,10 +137,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -480,43 +455,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7D4E5CE-491C-5B4A-839F-6498F2085D03}">
-  <dimension ref="A2:H16"/>
+  <dimension ref="A2:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="B3">
         <v>10747</v>
@@ -536,13 +511,10 @@
       <c r="G3">
         <v>186260</v>
       </c>
-      <c r="H3">
-        <v>451859</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>1</v>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="B4">
         <v>4745</v>
@@ -562,13 +534,10 @@
       <c r="G4">
         <v>74568</v>
       </c>
-      <c r="H4">
-        <v>187929</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>2</v>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="B5">
         <v>2405</v>
@@ -588,13 +557,10 @@
       <c r="G5">
         <v>33406</v>
       </c>
-      <c r="H5">
-        <v>92182</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>3</v>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="B6">
         <v>1453</v>
@@ -614,13 +580,10 @@
       <c r="G6">
         <v>27047</v>
       </c>
-      <c r="H6">
-        <v>73937</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>4</v>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B7">
         <v>738</v>
@@ -640,13 +603,10 @@
       <c r="G7">
         <v>19051</v>
       </c>
-      <c r="H7">
-        <v>48106</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>5</v>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B8">
         <v>523</v>
@@ -666,13 +626,10 @@
       <c r="G8">
         <v>15749</v>
       </c>
-      <c r="H8">
-        <v>38343</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>6</v>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="B9">
         <v>2021</v>
@@ -692,13 +649,10 @@
       <c r="G9">
         <v>96242</v>
       </c>
-      <c r="H9">
-        <v>189846</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>7</v>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="B10">
         <v>5319</v>
@@ -718,13 +672,10 @@
       <c r="G10">
         <v>142107</v>
       </c>
-      <c r="H10">
-        <v>363046</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>8</v>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="B11">
         <v>5619</v>
@@ -744,13 +695,10 @@
       <c r="G11">
         <v>122270</v>
       </c>
-      <c r="H11">
-        <v>306112</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>9</v>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="B12">
         <v>2733</v>
@@ -770,13 +718,10 @@
       <c r="G12">
         <v>41906</v>
       </c>
-      <c r="H12">
-        <v>116620</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>10</v>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="B13">
         <v>1815</v>
@@ -796,13 +741,10 @@
       <c r="G13">
         <v>21271</v>
       </c>
-      <c r="H13">
-        <v>68338</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>11</v>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="B14">
         <v>9440</v>
@@ -821,61 +763,6 @@
       </c>
       <c r="G14">
         <v>66991</v>
-      </c>
-      <c r="H14">
-        <v>243059</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15">
-        <v>2170</v>
-      </c>
-      <c r="C15">
-        <v>7914</v>
-      </c>
-      <c r="D15">
-        <v>17545</v>
-      </c>
-      <c r="E15">
-        <v>3866</v>
-      </c>
-      <c r="F15">
-        <v>16704</v>
-      </c>
-      <c r="G15">
-        <v>17302</v>
-      </c>
-      <c r="H15">
-        <v>65501</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="1">
-        <v>49728</v>
-      </c>
-      <c r="C16" s="1">
-        <v>197696</v>
-      </c>
-      <c r="D16" s="1">
-        <v>578920</v>
-      </c>
-      <c r="E16" s="1">
-        <v>27746</v>
-      </c>
-      <c r="F16" s="1">
-        <v>526618</v>
-      </c>
-      <c r="G16" s="1">
-        <v>864170</v>
-      </c>
-      <c r="H16" s="1">
-        <v>2244878</v>
       </c>
     </row>
   </sheetData>
